--- a/DOC/GAPO_V4.xlsx
+++ b/DOC/GAPO_V4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="12105" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="12105" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TT" sheetId="2" r:id="rId1"/>
@@ -508,9 +508,6 @@
     <t>*objekty v S&amp;G režimu se pouze zobrazuji (nelze volit volby), pouze ve validaci se kontroluje zda se stíhá přejezd a zda se vozík vejde celý do kabiny (zde postačí modré upozornění)</t>
   </si>
   <si>
-    <t>*S&amp;G, PP režimy se zohledňují (S&amp;G neobsahuje volby, PP obsahuje volby pouze pokud je změna na základě změny R nutná), pouze ve validaci zda se stíhá přejezd a jedostatečný mezerový fond</t>
-  </si>
-  <si>
     <t>Globální aktualizace parametrů objektů ve všech režimech a pohonů z důvodu změny aktuální rychlosti pohonů či rozestupu</t>
   </si>
   <si>
@@ -569,34 +566,6 @@
   </si>
   <si>
     <t>O9 - KK</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">volba bude možná, pouze pokud </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pův.(DV+M)&lt;=novéDV</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> a samozřejmě zároveň je splněna podmínka stíhání přejezdu, která platí pro veškeré volby objektu v PP režimu</t>
-    </r>
   </si>
   <si>
     <r>
@@ -649,6 +618,37 @@
   </si>
   <si>
     <t>Globální aktualizace parametrů objektů ve všech režimech a k nim přiařazenžých pohonů a z důvodu změny parametrů vozíku</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">platí pro objekty v režimu PP, volba bude možná, pouze pokud </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pův.(DV+M)&lt;=novéDV (platí pouze pro konkrétní objekt, nemá vliv na další PP objekty)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a samozřejmě zároveň je splněna podmínka stíhání přejezdu, která platí pro veškeré volby objektu v PP režimu</t>
+    </r>
+  </si>
+  <si>
+    <t>*S&amp;G, PP režimy se zohledňují (S&amp;G neobsahuje volby, PP obsahuje volby pouze pokud je změna na základě změny R nutná), pouze ve validaci zda se stíhá přejezd a jedostatečný mezerový fond (možná už řeší před vyvoláním gapoR validaceR při změně R záležitostí na úrovní tabulky pohonů v PL</t>
   </si>
 </sst>
 </file>
@@ -7624,7 +7624,7 @@
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="179" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -7682,8 +7682,8 @@
   </sheetPr>
   <dimension ref="B1:X24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7695,7 +7695,7 @@
   <sheetData>
     <row r="1" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="2:24" ht="150" customHeight="1" x14ac:dyDescent="0.25">
@@ -7744,7 +7744,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D3" s="90"/>
       <c r="E3" s="91"/>
@@ -7774,7 +7774,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="35"/>
@@ -7796,7 +7796,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="119"/>
       <c r="E5" s="120"/>
@@ -7816,7 +7816,7 @@
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="134"/>
       <c r="C6" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="119"/>
       <c r="E6" s="120"/>
@@ -7836,7 +7836,7 @@
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="134"/>
       <c r="C7" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D7" s="119"/>
       <c r="E7" s="120"/>
@@ -7850,7 +7850,7 @@
       <c r="M7" s="142"/>
       <c r="O7" s="186"/>
       <c r="P7" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
@@ -7858,7 +7858,7 @@
         <v>46</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D8" s="110"/>
       <c r="E8" s="111"/>
@@ -7872,13 +7872,13 @@
       <c r="M8" s="136"/>
       <c r="O8" s="190"/>
       <c r="P8" s="37" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" s="181"/>
       <c r="C9" s="70" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D9" s="182"/>
       <c r="E9" s="183"/>
@@ -7900,7 +7900,7 @@
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="181"/>
       <c r="C10" s="70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D10" s="188"/>
       <c r="E10" s="189"/>
@@ -7922,7 +7922,7 @@
     <row r="11" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="131"/>
       <c r="C11" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D11" s="112"/>
       <c r="E11" s="113"/>
@@ -7953,7 +7953,7 @@
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
@@ -7973,7 +7973,7 @@
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="179" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F18" s="25"/>
     </row>
@@ -8031,8 +8031,8 @@
   </sheetPr>
   <dimension ref="B1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8043,7 +8043,7 @@
   <sheetData>
     <row r="1" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="2:10" ht="103.5" x14ac:dyDescent="0.25">
@@ -8074,7 +8074,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" s="90"/>
       <c r="E3" s="157"/>
@@ -8090,7 +8090,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" s="159"/>
       <c r="E4" s="160"/>
@@ -8098,13 +8098,13 @@
       <c r="G4" s="161"/>
       <c r="I4" s="174"/>
       <c r="J4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="89"/>
       <c r="C5" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="162"/>
       <c r="E5" s="163"/>
@@ -8112,13 +8112,13 @@
       <c r="G5" s="164"/>
       <c r="I5" s="178"/>
       <c r="J5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="89"/>
       <c r="C6" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" s="171"/>
       <c r="E6" s="172"/>
@@ -8134,7 +8134,7 @@
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="89"/>
       <c r="C7" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="175"/>
       <c r="E7" s="176"/>
@@ -8150,14 +8150,14 @@
     <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="158"/>
       <c r="C8" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" s="165"/>
       <c r="E8" s="166"/>
       <c r="F8" s="165"/>
       <c r="G8" s="167"/>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -8167,7 +8167,7 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
@@ -8182,7 +8182,7 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="180" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/GAPO_V4.xlsx
+++ b/DOC/GAPO_V4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="12105" windowHeight="7530" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="12105" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TT" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="115">
   <si>
     <t>TT Changes</t>
   </si>
@@ -649,6 +649,9 @@
   </si>
   <si>
     <t>*S&amp;G, PP režimy se zohledňují (S&amp;G neobsahuje volby, PP obsahuje volby pouze pokud je změna na základě změny R nutná), pouze ve validaci zda se stíhá přejezd a jedostatečný mezerový fond (možná už řeší před vyvoláním gapoR validaceR při změně R záležitostí na úrovní tabulky pohonů v PL</t>
+  </si>
+  <si>
+    <t>O10 - PP</t>
   </si>
 </sst>
 </file>
@@ -1641,7 +1644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1820,6 +1823,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2131,6 +2140,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -4663,7 +4678,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>319909</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>14780</xdr:rowOff>
+      <xdr:rowOff>24305</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4699,7 +4714,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>508109</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>15437</xdr:rowOff>
+      <xdr:rowOff>24962</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5068,39 +5083,6 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="133333" cy="142857"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Obrázek 39"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1952625" y="3095625"/>
-          <a:ext cx="133333" cy="142857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -5137,7 +5119,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="133333" cy="142857"/>
     <xdr:pic>
@@ -5155,7 +5137,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3162300" y="3286125"/>
+          <a:off x="3343275" y="3657600"/>
           <a:ext cx="133333" cy="142857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5169,8 +5151,8 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152381" cy="171429"/>
     <xdr:pic>
@@ -5188,7 +5170,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1943100" y="3257550"/>
+          <a:off x="2124075" y="3619500"/>
           <a:ext cx="152381" cy="171429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5201,7 +5183,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
@@ -5221,7 +5203,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1762125" y="3076575"/>
+          <a:off x="1752600" y="3076575"/>
           <a:ext cx="152381" cy="171429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5545,7 +5527,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152381" cy="171429"/>
     <xdr:pic>
@@ -5563,7 +5545,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2362200" y="3095625"/>
+          <a:off x="2543175" y="3086100"/>
           <a:ext cx="152381" cy="171429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5760,43 +5742,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="152381" cy="171429"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="91" name="Obrázek 90"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2752725" y="3086100"/>
-          <a:ext cx="152381" cy="171429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152381" cy="171429"/>
     <xdr:pic>
@@ -5814,7 +5763,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2362200" y="3276600"/>
+          <a:off x="2543175" y="3638550"/>
           <a:ext cx="152381" cy="171429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5828,13 +5777,46 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="152381" cy="171429"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="Obrázek 92"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2933700" y="3629025"/>
+          <a:ext cx="152381" cy="171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152381" cy="171429"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="93" name="Obrázek 92"/>
+        <xdr:cNvPr id="50" name="Obrázek 49"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5847,40 +5829,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2752725" y="3267075"/>
-          <a:ext cx="152381" cy="171429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="152381" cy="171429"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Obrázek 49"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1752600" y="3648075"/>
+          <a:off x="1743075" y="3648075"/>
           <a:ext cx="152381" cy="171429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6025,7 +5974,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -6045,7 +5994,238 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="3448050"/>
+          <a:off x="1743075" y="3448050"/>
+          <a:ext cx="152381" cy="171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="152381" cy="171429"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Obrázek 61"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2124075" y="3829050"/>
+          <a:ext cx="152381" cy="171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="152381" cy="171429"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Obrázek 62"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2543175" y="3848100"/>
+          <a:ext cx="152381" cy="171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="152381" cy="171429"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Obrázek 63"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2933700" y="3838575"/>
+          <a:ext cx="152381" cy="171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="152381" cy="171429"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Obrázek 64"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="3848100"/>
+          <a:ext cx="152381" cy="171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="133333" cy="142857"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Obrázek 65"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1752600" y="3857625"/>
+          <a:ext cx="133333" cy="142857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="133333" cy="142857"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Obrázek 66"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2943225" y="3105150"/>
+          <a:ext cx="133333" cy="142857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="152381" cy="171429"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Obrázek 67"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2124075" y="3067050"/>
           <a:ext cx="152381" cy="171429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7333,32 +7513,32 @@
       <c r="D2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="124" t="s">
+      <c r="E2" s="126" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127" t="s">
+      <c r="F2" s="129"/>
+      <c r="G2" s="129" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="129"/>
-      <c r="I2" s="124" t="s">
+      <c r="H2" s="131"/>
+      <c r="I2" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="124" t="s">
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="126" t="s">
         <v>75</v>
       </c>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="128"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="130"/>
       <c r="R2" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="100" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -7367,50 +7547,50 @@
       <c r="D3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="90"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="91"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="93"/>
       <c r="M3" s="67"/>
       <c r="N3" s="67"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="116"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="118"/>
       <c r="R3" s="15"/>
       <c r="S3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="89"/>
+      <c r="B4" s="91"/>
       <c r="C4" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="96"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="103"/>
       <c r="R4" s="16"/>
       <c r="S4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="99"/>
+      <c r="B5" s="101"/>
       <c r="C5" s="12" t="s">
         <v>22</v>
       </c>
@@ -7444,25 +7624,25 @@
       <c r="D6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="90"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="91"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="93"/>
       <c r="M6" s="67"/>
       <c r="N6" s="67"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="116"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="118"/>
       <c r="R6" s="78"/>
       <c r="S6" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="91" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -7471,18 +7651,18 @@
       <c r="D7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="92"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="120"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="122"/>
       <c r="M7" s="79"/>
       <c r="N7" s="79"/>
-      <c r="O7" s="117"/>
-      <c r="P7" s="118"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="120"/>
       <c r="R7" s="2" t="s">
         <v>12</v>
       </c>
@@ -7491,25 +7671,25 @@
       </c>
     </row>
     <row r="8" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="89"/>
+      <c r="B8" s="91"/>
       <c r="C8" s="11" t="s">
         <v>48</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="92"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="120"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="122"/>
       <c r="M8" s="79"/>
       <c r="N8" s="79"/>
-      <c r="O8" s="117"/>
-      <c r="P8" s="118"/>
+      <c r="O8" s="119"/>
+      <c r="P8" s="120"/>
       <c r="R8" s="2" t="s">
         <v>17</v>
       </c>
@@ -7518,25 +7698,25 @@
       </c>
     </row>
     <row r="9" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="89"/>
+      <c r="B9" s="91"/>
       <c r="C9" s="11" t="s">
         <v>49</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="96"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="101"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="103"/>
       <c r="R9" s="68" t="s">
         <v>46</v>
       </c>
@@ -7545,25 +7725,25 @@
       </c>
     </row>
     <row r="10" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="89"/>
+      <c r="B10" s="91"/>
       <c r="C10" s="70" t="s">
         <v>73</v>
       </c>
       <c r="D10" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="94"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="122"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="124"/>
       <c r="M10" s="74"/>
       <c r="N10" s="74"/>
-      <c r="O10" s="121"/>
-      <c r="P10" s="123"/>
+      <c r="O10" s="123"/>
+      <c r="P10" s="125"/>
       <c r="S10" t="s">
         <v>37</v>
       </c>
@@ -7572,22 +7752,22 @@
       <c r="B11" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="103"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="107"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="109"/>
       <c r="I11" s="72"/>
       <c r="J11" s="73"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="108"/>
-      <c r="N11" s="109"/>
-      <c r="O11" s="109"/>
-      <c r="P11" s="109"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="107"/>
+      <c r="M11" s="110"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
       <c r="S11" t="s">
         <v>38</v>
       </c>
@@ -7623,7 +7803,7 @@
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="179" t="s">
+      <c r="B18" s="181" t="s">
         <v>100</v>
       </c>
     </row>
@@ -7680,10 +7860,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:X24"/>
+  <dimension ref="B1:X25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7746,12 +7926,12 @@
       <c r="C3" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="91"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="38"/>
       <c r="G3" s="39"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="154"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="156"/>
       <c r="J3" s="76"/>
       <c r="K3" s="77"/>
       <c r="L3" s="40"/>
@@ -7780,8 +7960,8 @@
       <c r="E4" s="35"/>
       <c r="F4" s="42"/>
       <c r="G4" s="43"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="154"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="156"/>
       <c r="J4" s="42"/>
       <c r="K4" s="43"/>
       <c r="L4" s="44"/>
@@ -7792,104 +7972,104 @@
       </c>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B5" s="134" t="s">
+      <c r="B5" s="136" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="119"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="146"/>
-      <c r="L5" s="141"/>
-      <c r="M5" s="142"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="147"/>
+      <c r="K5" s="148"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="144"/>
       <c r="O5" s="46"/>
       <c r="P5" s="37" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="134"/>
+      <c r="B6" s="136"/>
       <c r="C6" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="148"/>
-      <c r="L6" s="141"/>
-      <c r="M6" s="142"/>
-      <c r="O6" s="88"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="149"/>
+      <c r="K6" s="150"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="144"/>
+      <c r="O6" s="90"/>
       <c r="P6" s="37" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="134"/>
+      <c r="B7" s="136"/>
       <c r="C7" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="143"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="155"/>
-      <c r="I7" s="156"/>
-      <c r="J7" s="149"/>
-      <c r="K7" s="150"/>
-      <c r="L7" s="141"/>
-      <c r="M7" s="142"/>
-      <c r="O7" s="186"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="157"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="152"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="144"/>
+      <c r="O7" s="188"/>
       <c r="P7" s="37" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="132" t="s">
         <v>46</v>
       </c>
       <c r="C8" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="110"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="133"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="133"/>
-      <c r="J8" s="145"/>
-      <c r="K8" s="146"/>
-      <c r="L8" s="135"/>
-      <c r="M8" s="136"/>
-      <c r="O8" s="190"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="135"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="135"/>
+      <c r="J8" s="147"/>
+      <c r="K8" s="148"/>
+      <c r="L8" s="137"/>
+      <c r="M8" s="138"/>
+      <c r="O8" s="192"/>
       <c r="P8" s="37" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="181"/>
+      <c r="B9" s="183"/>
       <c r="C9" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="182"/>
-      <c r="E9" s="183"/>
-      <c r="F9" s="182"/>
-      <c r="G9" s="183"/>
-      <c r="H9" s="182"/>
-      <c r="I9" s="183"/>
-      <c r="J9" s="182"/>
-      <c r="K9" s="183"/>
-      <c r="L9" s="184"/>
-      <c r="M9" s="185"/>
+      <c r="D9" s="184"/>
+      <c r="E9" s="185"/>
+      <c r="F9" s="184"/>
+      <c r="G9" s="185"/>
+      <c r="H9" s="184"/>
+      <c r="I9" s="185"/>
+      <c r="J9" s="184"/>
+      <c r="K9" s="185"/>
+      <c r="L9" s="186"/>
+      <c r="M9" s="187"/>
       <c r="O9" s="10" t="s">
         <v>12</v>
       </c>
@@ -7898,20 +8078,20 @@
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B10" s="181"/>
+      <c r="B10" s="183"/>
       <c r="C10" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="188"/>
-      <c r="E10" s="189"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="85"/>
+      <c r="D10" s="190"/>
+      <c r="E10" s="191"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="87"/>
       <c r="O10" s="10" t="s">
         <v>47</v>
       </c>
@@ -7919,73 +8099,89 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="131"/>
-      <c r="C11" s="14" t="s">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B11" s="183"/>
+      <c r="C11" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="112"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="151"/>
-      <c r="K11" s="152"/>
-      <c r="L11" s="139"/>
-      <c r="M11" s="140"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="87"/>
       <c r="P11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
-        <v>88</v>
-      </c>
+    <row r="12" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="133"/>
+      <c r="C12" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="193"/>
+      <c r="E12" s="194"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="153"/>
+      <c r="K12" s="154"/>
+      <c r="L12" s="141"/>
+      <c r="M12" s="142"/>
       <c r="P12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>89</v>
+      <c r="B13" s="18" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="75" t="s">
-        <v>70</v>
+      <c r="B17" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="179" t="s">
+      <c r="B18" s="75" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="181" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="25"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="Q23" s="187"/>
+      <c r="F19" s="25"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="Q24" s="187"/>
+      <c r="Q24" s="189"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q25" s="189"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="Q24:Q25"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="H3:I3"/>
@@ -7994,9 +8190,9 @@
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="L12:M12"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
@@ -8007,9 +8203,9 @@
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B8:B12"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="B5:B7"/>
@@ -8031,7 +8227,7 @@
   </sheetPr>
   <dimension ref="B1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -8076,54 +8272,54 @@
       <c r="C3" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="116"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="118"/>
       <c r="I3" s="15"/>
       <c r="J3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="91" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="159"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="159"/>
-      <c r="G4" s="161"/>
-      <c r="I4" s="174"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="163"/>
+      <c r="I4" s="176"/>
       <c r="J4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="89"/>
+      <c r="B5" s="91"/>
       <c r="C5" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="162"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="162"/>
-      <c r="G5" s="164"/>
-      <c r="I5" s="178"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="164"/>
+      <c r="G5" s="166"/>
+      <c r="I5" s="180"/>
       <c r="J5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="89"/>
+      <c r="B6" s="91"/>
       <c r="C6" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="171"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="173"/>
+      <c r="D6" s="173"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="173"/>
+      <c r="G6" s="175"/>
       <c r="I6" s="48" t="s">
         <v>12</v>
       </c>
@@ -8132,14 +8328,14 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="89"/>
+      <c r="B7" s="91"/>
       <c r="C7" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="175"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="175"/>
-      <c r="G7" s="177"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="177"/>
+      <c r="G7" s="179"/>
       <c r="I7" s="48" t="s">
         <v>17</v>
       </c>
@@ -8148,14 +8344,14 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="158"/>
+      <c r="B8" s="160"/>
       <c r="C8" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="165"/>
-      <c r="E8" s="166"/>
-      <c r="F8" s="165"/>
-      <c r="G8" s="167"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="169"/>
       <c r="I8" t="s">
         <v>98</v>
       </c>
@@ -8181,7 +8377,7 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="180" t="s">
+      <c r="B13" s="182" t="s">
         <v>99</v>
       </c>
     </row>
@@ -8278,10 +8474,10 @@
       <c r="C3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="116"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="118"/>
       <c r="H3" s="60"/>
       <c r="I3" s="55"/>
       <c r="J3" s="55"/>
@@ -8292,16 +8488,16 @@
       <c r="O3" s="58"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="91" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="159"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="159"/>
-      <c r="G4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="163"/>
       <c r="H4" s="54"/>
       <c r="I4" s="56"/>
       <c r="J4" s="61"/>
@@ -8312,14 +8508,14 @@
       <c r="O4" s="58"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="89"/>
+      <c r="B5" s="91"/>
       <c r="C5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="162"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="162"/>
-      <c r="G5" s="164"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="164"/>
+      <c r="G5" s="166"/>
       <c r="H5" s="60"/>
       <c r="I5" s="56"/>
       <c r="J5" s="55"/>
@@ -8330,14 +8526,14 @@
       <c r="O5" s="58"/>
     </row>
     <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="158"/>
+      <c r="B6" s="160"/>
       <c r="C6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="165"/>
-      <c r="E6" s="166"/>
-      <c r="F6" s="165"/>
-      <c r="G6" s="167"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="169"/>
       <c r="H6" s="62"/>
       <c r="I6" s="57"/>
       <c r="J6" s="57"/>
@@ -8473,14 +8669,14 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="168" t="s">
+      <c r="D9" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="168"/>
-      <c r="F9" s="169" t="s">
+      <c r="E9" s="170"/>
+      <c r="F9" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="169"/>
+      <c r="G9" s="171"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -8543,14 +8739,14 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D15" s="169" t="s">
+      <c r="D15" s="171" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="169"/>
-      <c r="F15" s="170" t="s">
+      <c r="E15" s="171"/>
+      <c r="F15" s="172" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="170"/>
+      <c r="G15" s="172"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">

--- a/DOC/GAPO_V4.xlsx
+++ b/DOC/GAPO_V4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="12105" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="12105" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="TT" sheetId="2" r:id="rId1"/>
@@ -2237,13 +2237,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>295258</xdr:colOff>
+      <xdr:colOff>361933</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>171432</xdr:rowOff>
     </xdr:to>
@@ -2262,7 +2262,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2943225" y="1685925"/>
+          <a:off x="3009900" y="1685925"/>
           <a:ext cx="133333" cy="142857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2275,13 +2275,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>285731</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123806</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>180954</xdr:rowOff>
     </xdr:to>
@@ -2300,7 +2300,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2819400" y="1590675"/>
+          <a:off x="3686175" y="1666875"/>
           <a:ext cx="152381" cy="171429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2313,13 +2313,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>285733</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123808</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>161907</xdr:rowOff>
     </xdr:to>
@@ -2338,7 +2338,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2838450" y="1790700"/>
+          <a:off x="3705225" y="2266950"/>
           <a:ext cx="133333" cy="142857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2351,13 +2351,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>304781</xdr:colOff>
+      <xdr:colOff>371456</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>180954</xdr:rowOff>
     </xdr:to>
@@ -2376,7 +2376,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2438400" y="1857375"/>
+          <a:off x="3000375" y="2257425"/>
           <a:ext cx="152381" cy="171429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2845,13 +2845,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>276208</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114283</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>171432</xdr:rowOff>
     </xdr:to>
@@ -2870,7 +2870,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2828925" y="2371725"/>
+          <a:off x="3695700" y="3057525"/>
           <a:ext cx="133333" cy="142857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2883,13 +2883,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>304781</xdr:colOff>
+      <xdr:colOff>371456</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>180954</xdr:rowOff>
     </xdr:to>
@@ -2908,7 +2908,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2438400" y="2352675"/>
+          <a:off x="3000375" y="3038475"/>
           <a:ext cx="152381" cy="171429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2921,13 +2921,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>295258</xdr:colOff>
+      <xdr:colOff>361933</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>161907</xdr:rowOff>
     </xdr:to>
@@ -2946,7 +2946,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2447925" y="1981200"/>
+          <a:off x="3009900" y="2457450"/>
           <a:ext cx="133333" cy="142857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2959,13 +2959,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>295256</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133331</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>180954</xdr:rowOff>
     </xdr:to>
@@ -2984,7 +2984,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2828925" y="1971675"/>
+          <a:off x="3695700" y="2447925"/>
           <a:ext cx="152381" cy="171429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2997,13 +2997,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>285733</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123808</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>161907</xdr:rowOff>
     </xdr:to>
@@ -3022,7 +3022,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2838450" y="2247900"/>
+          <a:off x="3705225" y="2647950"/>
           <a:ext cx="133333" cy="142857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3035,13 +3035,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>304781</xdr:colOff>
+      <xdr:colOff>371456</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>171429</xdr:rowOff>
     </xdr:to>
@@ -3060,7 +3060,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2438400" y="2228850"/>
+          <a:off x="3000375" y="2628900"/>
           <a:ext cx="152381" cy="171429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3542,13 +3542,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>153642</xdr:colOff>
+      <xdr:colOff>220317</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>26504</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>286975</xdr:colOff>
+      <xdr:colOff>353650</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>169361</xdr:rowOff>
     </xdr:to>
@@ -3567,8 +3567,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2447925" y="2445026"/>
-          <a:ext cx="132090" cy="142857"/>
+          <a:off x="3001617" y="2855429"/>
+          <a:ext cx="133333" cy="142857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3580,7 +3580,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>153642</xdr:colOff>
+      <xdr:colOff>220317</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>26504</xdr:rowOff>
     </xdr:from>
@@ -3600,7 +3600,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2447925" y="2834308"/>
+          <a:off x="3001617" y="1883879"/>
           <a:ext cx="132090" cy="142857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3651,13 +3651,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>131279</xdr:colOff>
+      <xdr:colOff>283679</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>8284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>283661</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>121736</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>179713</xdr:rowOff>
     </xdr:to>
@@ -3676,8 +3676,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2823127" y="2062371"/>
-          <a:ext cx="151139" cy="171429"/>
+          <a:off x="3684104" y="2065684"/>
+          <a:ext cx="152382" cy="171429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3727,13 +3727,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>149087</xdr:colOff>
+      <xdr:colOff>215762</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>301468</xdr:colOff>
+      <xdr:colOff>368143</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>180955</xdr:rowOff>
     </xdr:to>
@@ -3752,8 +3752,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2443370" y="2063613"/>
-          <a:ext cx="151138" cy="171429"/>
+          <a:off x="2997062" y="2066926"/>
+          <a:ext cx="152381" cy="171429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7482,8 +7482,8 @@
   </sheetPr>
   <dimension ref="B1:S18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7498,7 +7498,7 @@
     <col min="10" max="16" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
         <v>32</v>
       </c>
@@ -7862,7 +7862,7 @@
   </sheetPr>
   <dimension ref="B1:X25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
